--- a/docs/mcode/onco-core-CancerCondition.xlsx
+++ b/docs/mcode/onco-core-CancerCondition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="325">
   <si>
     <t>Path</t>
   </si>
@@ -506,7 +506,10 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/ConditionCategoryVS</t>
+    <t>Extended category code valueset to support the intent of the separate concepts of problems and health concerns</t>
+  </si>
+  <si>
+    <t>http://fhir.org/guides/argonaut/ValueSet/condition-category</t>
   </si>
   <si>
     <t>'problem' if from PRB-3. 'diagnosis' if from DG1 segment in PV1 message</t>
@@ -516,6 +519,196 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>Condition.category.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Condition.category.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Condition.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Fixed_64572001</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.id</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://snomed.info/sct"/&gt;</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="64572001"/&gt;</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Condition.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Condition.clinicalStatus</t>
@@ -648,19 +841,7 @@
     <t>Condition.stage.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Condition.stage.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Condition.stage.modifierExtension</t>
@@ -806,7 +987,7 @@
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -823,7 +1004,7 @@
   </si>
   <si>
     <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -843,7 +1024,7 @@
 * Specifying the location and type of landmark using a body site code and optional laterality/orientation,
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -855,51 +1036,7 @@
     <t>Condition.bodySite.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
     <t>Condition.bodySite.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Condition.notes</t>
@@ -1063,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1072,7 +1209,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.19140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1095,7 +1232,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="77.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="102.35546875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="61.34765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -3163,9 +3300,11 @@
       <c r="W19" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="X19" s="2"/>
+      <c r="X19" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3201,18 +3340,18 @@
         <v>151</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3220,28 +3359,28 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3265,14 +3404,16 @@
         <v>40</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3289,15 +3430,11 @@
       <c r="AD20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3305,52 +3442,54 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AM20" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>165</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3372,14 +3511,16 @@
         <v>40</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3396,15 +3537,11 @@
       <c r="AD21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3412,21 +3549,21 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3434,10 +3571,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3449,18 +3586,20 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3481,71 +3620,67 @@
         <v>40</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AB22" s="2"/>
+      <c r="AC22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE22" s="2"/>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" s="2"/>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AL22" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>50</v>
@@ -3560,17 +3695,15 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3592,7 +3725,7 @@
         <v>40</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
         <v>40</v>
@@ -3618,15 +3751,11 @@
       <c r="AD23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3637,18 +3766,18 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>187</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3668,20 +3797,18 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3703,7 +3830,7 @@
         <v>40</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
         <v>40</v>
@@ -3729,15 +3856,11 @@
       <c r="AD24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3751,26 +3874,26 @@
         <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -3779,18 +3902,20 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3812,7 +3937,7 @@
         <v>40</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>40</v>
@@ -3838,20 +3963,16 @@
       <c r="AD25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE25" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
@@ -3860,7 +3981,7 @@
         <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3868,7 +3989,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3888,25 +4009,29 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>40</v>
@@ -3921,7 +4046,7 @@
         <v>40</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>40</v>
@@ -3947,15 +4072,11 @@
       <c r="AD26" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE26" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3966,10 +4087,10 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -3977,18 +4098,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -3997,19 +4118,19 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4032,7 +4153,7 @@
         <v>40</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>40</v>
@@ -4058,15 +4179,11 @@
       <c r="AD27" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE27" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="AE27" s="2"/>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG27" s="2"/>
       <c r="AH27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4077,10 +4194,10 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4088,47 +4205,47 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I28" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>40</v>
@@ -4143,7 +4260,7 @@
         <v>40</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
         <v>40</v>
@@ -4169,15 +4286,11 @@
       <c r="AD28" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE28" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="AE28" s="2"/>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG28" s="2"/>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4188,10 +4301,10 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4199,7 +4312,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4222,16 +4335,18 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4252,16 +4367,16 @@
         <v>40</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4278,17 +4393,13 @@
       <c r="AD29" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE29" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="AE29" s="2"/>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG29" s="2"/>
       <c r="AH29" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>40</v>
@@ -4297,10 +4408,10 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4308,7 +4419,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4331,16 +4442,20 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4361,7 +4476,7 @@
         <v>40</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
         <v>40</v>
@@ -4387,17 +4502,13 @@
       <c r="AD30" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE30" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG30" s="2"/>
       <c r="AH30" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
@@ -4406,10 +4517,10 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4417,7 +4528,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4428,7 +4539,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4440,18 +4551,20 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4472,7 +4585,7 @@
         <v>40</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
         <v>40</v>
@@ -4498,37 +4611,33 @@
       <c r="AD31" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE31" t="s" s="2">
+      <c r="AE31" s="2"/>
+      <c r="AF31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG31" s="2"/>
+      <c r="AH31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4536,28 +4645,28 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4584,13 +4693,11 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4608,7 +4715,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4623,54 +4730,52 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4695,13 +4800,11 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -4719,13 +4822,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4734,53 +4837,53 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I34" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4806,13 +4909,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4830,13 +4933,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -4848,18 +4951,18 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4882,15 +4985,17 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4915,11 +5020,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -4937,7 +5044,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4946,7 +5053,7 @@
         <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
@@ -4955,18 +5062,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4977,7 +5084,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -4989,15 +5096,17 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5046,16 +5155,16 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
@@ -5067,15 +5176,15 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5086,7 +5195,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5098,17 +5207,15 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5133,11 +5240,13 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5155,19 +5264,19 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>40</v>
@@ -5176,7 +5285,7 @@
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5184,7 +5293,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5210,10 +5319,10 @@
         <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5237,7 +5346,7 @@
         <v>40</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>40</v>
@@ -5263,11 +5372,15 @@
       <c r="AD38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5281,7 +5394,7 @@
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5289,7 +5402,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5318,7 +5431,7 @@
         <v>91</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>93</v>
@@ -5344,7 +5457,7 @@
         <v>40</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
         <v>40</v>
@@ -5359,20 +5472,26 @@
         <v>40</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB39" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE39" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5386,7 +5505,7 @@
         <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5394,13 +5513,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5413,19 +5530,23 @@
         <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5447,7 +5568,7 @@
         <v>40</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
         <v>40</v>
@@ -5474,7 +5595,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5495,7 +5616,7 @@
         <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -5503,11 +5624,9 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5516,7 +5635,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5525,14 +5644,16 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="L41" t="s" s="2">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5556,16 +5677,16 @@
         <v>40</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -5583,16 +5704,16 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
@@ -5601,10 +5722,10 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -5612,11 +5733,9 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5625,7 +5744,7 @@
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -5634,14 +5753,16 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="K42" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="L42" t="s" s="2">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5665,7 +5786,7 @@
         <v>40</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>40</v>
@@ -5692,7 +5813,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5701,7 +5822,7 @@
         <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>40</v>
@@ -5713,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -5721,7 +5842,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5744,20 +5865,18 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5778,7 +5897,7 @@
         <v>40</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>40</v>
@@ -5804,25 +5923,29 @@
       <c r="AD43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE43" s="2"/>
+      <c r="AE43" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG43" s="2"/>
+      <c r="AG43" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -5830,7 +5953,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5850,23 +5973,19 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -5887,7 +6006,7 @@
         <v>40</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
         <v>40</v>
@@ -5913,11 +6032,15 @@
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE44" s="2"/>
+      <c r="AE44" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
@@ -5928,10 +6051,10 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -5939,18 +6062,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -5959,18 +6082,20 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6019,35 +6144,1335 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AH45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="X47" s="2"/>
+      <c r="Y47" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="X49" s="2"/>
+      <c r="Y49" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" s="2"/>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" s="2"/>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB51" s="2"/>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE51" s="2"/>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" s="2"/>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE55" s="2"/>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" s="2"/>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE56" s="2"/>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" s="2"/>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM45">
+  <autoFilter ref="A1:AM57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6057,7 +7482,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI44">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/onco-core-CancerCondition.xlsx
+++ b/docs/mcode/onco-core-CancerCondition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="380">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -190,7 +190,7 @@
     <t>Condition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -200,13 +200,146 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
+    <t>Condition.meta.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Condition.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-SourceSystem-extension}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Condition.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Condition.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Condition.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Condition.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Condition.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
     <t>Condition.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -219,7 +352,7 @@
     <t>Condition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -248,7 +381,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -275,7 +408,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -294,34 +427,33 @@
     <t>Condition.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Author-extension}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>The actor who created the item and it responsible for the content (regardless of the information source or who recorded it). If only the author is given, it is assumed the author is the information source and the recorder.</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Annotation-extension}
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
   </si>
   <si>
     <t>dateofdiagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DateOfDiagnosis-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-DateOfDiagnosis-extension}
 </t>
   </si>
   <si>
@@ -331,7 +463,7 @@
     <t>histologymorphologybehavior</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-HistologyMorphologyBehavior-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-HistologyMorphologyBehavior-extension}
 </t>
   </si>
   <si>
@@ -350,7 +482,7 @@
     <t>Condition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -372,7 +504,7 @@
     <t>Condition.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
@@ -394,7 +526,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -419,14 +551,14 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
+    <t xml:space="preserve">Reference(Practitioner)
 </t>
   </si>
   <si>
-    <t>Person who asserts this condition</t>
-  </si>
-  <si>
-    <t>Individual who is making the condition statement.</t>
+    <t>The information comes from a practitioner who asserts the condition</t>
+  </si>
+  <si>
+    <t>The information comes from a practitioner who asserts the condition.</t>
   </si>
   <si>
     <t>REL-7.1 identifier + REL-7.12 type code</t>
@@ -441,7 +573,7 @@
     <t>Condition.dateRecorded</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -466,7 +598,7 @@
     <t>Condition.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -476,10 +608,10 @@
     <t>Identification of the condition, problem or diagnosis.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem</t>
+    <t>Valueset to describe the actual problem experienced by the patient</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/daf-problem</t>
   </si>
   <si>
     <t>PRB-3</t>
@@ -524,26 +656,10 @@
     <t>Condition.category.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Condition.category.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Condition.category.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -595,7 +711,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://snomed.info/sct"/&gt;</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>C*E.3</t>
@@ -607,7 +723,7 @@
     <t>Condition.category.coding.version</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -638,7 +754,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="64572001"/&gt;</t>
+    <t>64572001</t>
   </si>
   <si>
     <t>C*E.1</t>
@@ -668,7 +784,7 @@
     <t>Condition.category.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -774,8 +890,8 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Age]]} {[]}Period {[]} {[]}Range {[]} {[]}string {[]} {[]}</t>
+    <t>dateTime
+Quantity {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-Age}PeriodRangestring</t>
   </si>
   <si>
     <t>Estimated or actual date,  date-time, or age</t>
@@ -799,8 +915,8 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Age]]} {[]}boolean {[]} {[]}Period {[]} {[]}Range {[]} {[]}string {[]} {[]}</t>
+    <t>dateTime
+Quantity {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-Age}booleanPeriodRangestring</t>
   </si>
   <si>
     <t>If/when in resolution/remission</t>
@@ -821,7 +937,7 @@
     <t>Condition.stage</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -844,6 +960,65 @@
     <t>Condition.stage.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">exists:url}
+</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-Type-extension}
+</t>
+  </si>
+  <si>
+    <t>A code describing the item at a greater level of detail.</t>
+  </si>
+  <si>
+    <t>Condition.stage.extension.id</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Condition.stage.extension.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Condition.stage.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-Type-extension</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Condition.stage.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>Condition.stage.modifierExtension</t>
   </si>
   <si>
@@ -863,9 +1038,6 @@
     <t>A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
@@ -882,7 +1054,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-DiagnosticReport|http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -945,7 +1117,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Resource)
 </t>
   </si>
   <si>
@@ -967,7 +1139,7 @@
     <t>May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/CancerBodyLocationVS</t>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-CancerBodyLocationVS</t>
   </si>
   <si>
     <t>.targetBodySiteCode</t>
@@ -982,41 +1154,41 @@
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-Laterality-extension}
 </t>
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
 The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+    <t>anatomicalorientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+    <t>AnatomicalOrientation of the body location, if needed to distinguish from a similar location in another orientation.
 The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-RelationToLandmark-extension}
 </t>
   </si>
   <si>
@@ -1025,11 +1197,11 @@
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
 The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
@@ -1104,67 +1276,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1200,7 +1372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN57"/>
+  <dimension ref="A1:AM72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1209,7 +1381,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.5078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1233,7 +1405,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="102.35546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.34765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1717,23 +1889,21 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>64</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1755,7 +1925,7 @@
         <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>40</v>
@@ -1781,15 +1951,11 @@
       <c r="AD5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE5" t="s" s="2">
-        <v>60</v>
-      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG5" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG5" s="2"/>
       <c r="AH5" t="s" s="2">
         <v>40</v>
       </c>
@@ -1803,7 +1969,7 @@
         <v>40</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>40</v>
@@ -1811,18 +1977,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1866,41 +2032,35 @@
         <v>40</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" s="2"/>
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG6" s="2"/>
       <c r="AH6" t="s" s="2">
         <v>40</v>
       </c>
@@ -1914,7 +2074,7 @@
         <v>40</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>40</v>
@@ -1922,11 +2082,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1945,17 +2107,13 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>40</v>
@@ -1977,7 +2135,7 @@
         <v>40</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>40</v>
@@ -2004,16 +2162,16 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
@@ -2025,7 +2183,7 @@
         <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>40</v>
@@ -2033,18 +2191,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -2053,19 +2211,19 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2088,7 +2246,7 @@
         <v>40</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>40</v>
@@ -2114,15 +2272,11 @@
       <c r="AD8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
@@ -2136,7 +2290,7 @@
         <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>40</v>
@@ -2144,18 +2298,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>40</v>
@@ -2164,19 +2318,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2199,7 +2353,7 @@
         <v>40</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>40</v>
@@ -2214,24 +2368,22 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
@@ -2245,7 +2397,7 @@
         <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>40</v>
@@ -2253,11 +2405,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2266,7 +2416,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -2275,16 +2425,20 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2306,7 +2460,7 @@
         <v>40</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
         <v>40</v>
@@ -2332,15 +2486,11 @@
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2362,11 +2512,9 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2375,7 +2523,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2384,16 +2532,20 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2415,16 +2567,16 @@
         <v>40</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2441,15 +2593,11 @@
       <c r="AD11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2471,11 +2619,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2488,22 +2636,22 @@
         <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2526,13 +2674,13 @@
         <v>40</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="Y12" t="s" s="2">
         <v>40</v>
@@ -2552,15 +2700,11 @@
       <c r="AD12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2574,7 +2718,7 @@
         <v>40</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2582,7 +2726,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2593,30 +2737,30 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>109</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2664,13 +2808,13 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
@@ -2685,15 +2829,15 @@
         <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2701,13 +2845,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
@@ -2716,15 +2860,17 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2749,13 +2895,13 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2773,10 +2919,10 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>50</v>
@@ -2788,25 +2934,25 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2822,19 +2968,19 @@
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2884,7 +3030,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2893,7 +3039,7 @@
         <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
@@ -2902,29 +3048,29 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -2933,18 +3079,20 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2993,13 +3141,13 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
@@ -3011,29 +3159,29 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -3042,19 +3190,19 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3092,25 +3240,23 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
@@ -3122,32 +3268,34 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -3156,13 +3304,11 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3189,11 +3335,13 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3211,13 +3359,13 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3226,32 +3374,34 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3263,17 +3413,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3298,13 +3444,13 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3322,13 +3468,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3337,23 +3483,25 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3374,13 +3522,11 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3404,7 +3550,7 @@
         <v>40</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>40</v>
@@ -3430,11 +3576,15 @@
       <c r="AD20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3448,7 +3598,7 @@
         <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3456,18 +3606,20 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3479,17 +3631,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3511,7 +3659,7 @@
         <v>40</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>40</v>
@@ -3537,11 +3685,15 @@
       <c r="AD21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE21" s="2"/>
+      <c r="AE21" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3555,7 +3707,7 @@
         <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3563,15 +3715,15 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>42</v>
@@ -3580,26 +3732,24 @@
         <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3620,7 +3770,7 @@
         <v>40</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
         <v>40</v>
@@ -3635,20 +3785,26 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE22" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG22" s="2"/>
+      <c r="AG22" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3659,10 +3815,10 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3670,20 +3826,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3695,16 +3849,18 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3725,7 +3881,7 @@
         <v>40</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
         <v>40</v>
@@ -3751,11 +3907,15 @@
       <c r="AD23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG23" s="2"/>
+      <c r="AG23" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3769,15 +3929,15 @@
         <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3785,13 +3945,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -3800,13 +3960,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3830,7 +3990,7 @@
         <v>40</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
         <v>40</v>
@@ -3856,11 +4016,15 @@
       <c r="AD24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="AF24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG24" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3868,32 +4032,32 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -3902,19 +4066,19 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3937,7 +4101,7 @@
         <v>40</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>40</v>
@@ -3963,11 +4127,15 @@
       <c r="AD25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3978,18 +4146,18 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4012,26 +4180,22 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>40</v>
@@ -4046,7 +4210,7 @@
         <v>40</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>40</v>
@@ -4072,11 +4236,15 @@
       <c r="AD26" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG26" s="2"/>
+      <c r="AG26" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4087,18 +4255,18 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4121,16 +4289,16 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4153,7 +4321,7 @@
         <v>40</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>40</v>
@@ -4179,11 +4347,15 @@
       <c r="AD27" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE27" s="2"/>
+      <c r="AE27" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4194,18 +4366,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4213,39 +4385,37 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>40</v>
@@ -4260,16 +4430,16 @@
         <v>40</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4286,11 +4456,15 @@
       <c r="AD28" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE28" s="2"/>
+      <c r="AE28" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="AF28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG28" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4298,21 +4472,21 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4320,7 +4494,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>50</v>
@@ -4332,21 +4506,21 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4367,16 +4541,16 @@
         <v>40</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4393,11 +4567,15 @@
       <c r="AD29" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE29" s="2"/>
+      <c r="AE29" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG29" s="2"/>
+      <c r="AG29" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4405,21 +4583,21 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4439,23 +4617,19 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4517,10 +4691,10 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4528,18 +4702,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4548,23 +4722,21 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4626,18 +4798,18 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4648,28 +4820,32 @@
         <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4690,39 +4866,35 @@
         <v>40</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AE32" s="2"/>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG32" s="2"/>
       <c r="AH32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4730,23 +4902,25 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4758,22 +4932,22 @@
         <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4797,14 +4971,16 @@
         <v>40</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -4821,15 +4997,11 @@
       <c r="AD33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE33" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4837,21 +5009,21 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4862,7 +5034,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4871,20 +5043,18 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4906,16 +5076,16 @@
         <v>40</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4932,15 +5102,11 @@
       <c r="AD34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE34" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
@@ -4951,29 +5117,29 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -4982,19 +5148,19 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>244</v>
+        <v>66</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5017,7 +5183,7 @@
         <v>40</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>40</v>
@@ -5043,15 +5209,11 @@
       <c r="AD35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5062,18 +5224,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>249</v>
+        <v>63</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>250</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5096,24 +5258,26 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>40</v>
@@ -5128,7 +5292,7 @@
         <v>40</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
         <v>40</v>
@@ -5154,15 +5318,11 @@
       <c r="AD36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>251</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5173,18 +5333,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5207,15 +5367,17 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5237,7 +5399,7 @@
         <v>40</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
         <v>40</v>
@@ -5263,29 +5425,25 @@
       <c r="AD37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE37" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5293,7 +5451,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5313,25 +5471,27 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>40</v>
@@ -5346,7 +5506,7 @@
         <v>40</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>40</v>
@@ -5372,15 +5532,11 @@
       <c r="AD38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5391,10 +5547,10 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5402,18 +5558,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5422,21 +5578,21 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5457,7 +5613,7 @@
         <v>40</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
         <v>40</v>
@@ -5483,15 +5639,11 @@
       <c r="AD39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>265</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5502,10 +5654,10 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5513,41 +5665,43 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I40" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5568,7 +5722,7 @@
         <v>40</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
         <v>40</v>
@@ -5594,15 +5748,11 @@
       <c r="AD40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5613,10 +5763,10 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -5624,7 +5774,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5647,16 +5797,20 @@
         <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5677,16 +5831,16 @@
         <v>40</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -5703,17 +5857,13 @@
       <c r="AD41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
@@ -5722,18 +5872,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5747,22 +5897,22 @@
         <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5789,13 +5939,11 @@
         <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -5813,36 +5961,36 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5850,32 +5998,30 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -5900,13 +6046,11 @@
         <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -5924,36 +6068,36 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5964,7 +6108,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -5973,18 +6117,20 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6009,13 +6155,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6033,7 +6179,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6051,29 +6197,29 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6082,19 +6228,19 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6144,13 +6290,13 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6162,50 +6308,50 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I46" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>103</v>
+        <v>290</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6255,13 +6401,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6276,15 +6422,15 @@
         <v>40</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6307,13 +6453,13 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>143</v>
+        <v>296</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6340,11 +6486,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6362,7 +6510,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6371,10 +6519,10 @@
         <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>40</v>
@@ -6383,7 +6531,7 @@
         <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -6391,7 +6539,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6402,7 +6550,7 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6411,16 +6559,16 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>299</v>
+        <v>61</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>300</v>
+        <v>62</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6471,16 +6619,16 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>40</v>
@@ -6492,7 +6640,7 @@
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6500,11 +6648,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6520,19 +6668,19 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>303</v>
+        <v>68</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>304</v>
+        <v>69</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6558,29 +6706,29 @@
         <v>41</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6601,7 +6749,7 @@
         <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>306</v>
+        <v>63</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6609,9 +6757,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6632,13 +6782,11 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="K50" s="2"/>
       <c r="L50" t="s" s="2">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6662,7 +6810,7 @@
         <v>40</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
         <v>40</v>
@@ -6688,11 +6836,15 @@
       <c r="AD50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6706,7 +6858,7 @@
         <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -6714,18 +6866,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6737,17 +6889,15 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6784,20 +6934,26 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB51" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE51" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
       </c>
@@ -6811,7 +6967,7 @@
         <v>40</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -6819,20 +6975,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B52" t="s" s="2">
         <v>309</v>
       </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -6844,13 +6998,17 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K52" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="L52" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -6899,7 +7057,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6920,7 +7078,7 @@
         <v>40</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -6928,20 +7086,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -6953,20 +7109,24 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K53" s="2"/>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>40</v>
@@ -7008,13 +7168,13 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7029,7 +7189,7 @@
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7037,20 +7197,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7062,11 +7220,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="K54" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="L54" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7093,13 +7253,11 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7117,13 +7275,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7138,7 +7296,7 @@
         <v>40</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
@@ -7146,11 +7304,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7163,26 +7321,24 @@
         <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>170</v>
+        <v>324</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7203,7 +7359,7 @@
         <v>40</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
         <v>40</v>
@@ -7229,11 +7385,15 @@
       <c r="AD55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE55" s="2"/>
+      <c r="AE55" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG55" s="2"/>
+      <c r="AG55" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7244,10 +7404,10 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7255,7 +7415,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7278,20 +7438,16 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7312,16 +7468,16 @@
         <v>40</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7338,13 +7494,17 @@
       <c r="AD56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE56" s="2"/>
+      <c r="AE56" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG56" s="2"/>
+      <c r="AG56" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH56" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>40</v>
@@ -7353,10 +7513,10 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7364,7 +7524,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7387,13 +7547,13 @@
         <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>189</v>
+        <v>333</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7444,35 +7604,1666 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AH57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK57" t="s" s="2">
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="M61" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="X62" s="2"/>
+      <c r="Y62" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="X64" s="2"/>
+      <c r="Y64" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" s="2"/>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" s="2"/>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB66" s="2"/>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE66" s="2"/>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" s="2"/>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K68" s="2"/>
+      <c r="L68" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K69" s="2"/>
+      <c r="L69" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" s="2"/>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" s="2"/>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" s="2"/>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" s="2"/>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM57">
+  <autoFilter ref="A1:AM72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7482,7 +9273,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
